--- a/pred_ohlcv/54_21/2019-10-26 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 LOOM ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>618818.9135</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>663516.9601</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>663516.9601</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>661291.7091</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>582132.6166</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>588943.6166</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>953772.4750999999</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>961906.8544999999</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>977521.8544999999</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1132933.6926</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1126091.9628</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1126209.7876</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1135200.7322</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1122893.0279</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>966098.7899999998</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>966098.7899999998</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>966098.7899999998</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>971427.7034999998</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>971234.7034999998</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>969554.2704999999</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>969554.2704999999</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>439993.6487995831</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 LOOM ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>618818.9135</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>663516.9601</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>663516.9601</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>661291.7091</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>582132.6166</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>588943.6166</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>938913.7396999999</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>938913.7396999999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>956172.4750999999</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>953772.4750999999</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>961906.8544999999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>977521.8544999999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1132933.6926</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1126091.9628</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1126209.7876</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1135200.7322</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1122893.0279</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>966098.7899999998</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>966098.7899999998</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>966098.7899999998</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>971427.7034999998</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>971234.7034999998</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>969554.2704999999</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>969554.2704999999</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>445009.2678999998</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>450295.5081999998</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>450295.5081999998</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>450295.5081999998</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
